--- a/Output/cuadro3.Empresas_con_sindicato_sector.xlsx
+++ b/Output/cuadro3.Empresas_con_sindicato_sector.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inechile-my.sharepoint.com/personal/nicolas_ratto_ine_cl/Documents/GitHub/OBSERVATORIO SINDICAL/Encla histórica/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D5E23C651E246A5B8CFAFCA7A8FAEAFE2FC7F093" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{141B69E9-FEB9-4B18-B9A8-71C0B5CB593E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="1" r:id="rId1"/>
@@ -23,279 +17,13 @@
     <sheet name="2014" sheetId="8" r:id="rId8"/>
     <sheet name="2019" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>sin_sindicato</t>
-  </si>
-  <si>
-    <t>con_sindicato</t>
-  </si>
-  <si>
-    <t>porcentaje_sindicato</t>
-  </si>
-  <si>
-    <t>ENCLA</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Agricultura pesca</t>
-  </si>
-  <si>
-    <t>minas y canteras</t>
-  </si>
-  <si>
-    <t>Ind.manufactura</t>
-  </si>
-  <si>
-    <t>elec. gas agua</t>
-  </si>
-  <si>
-    <t>construccion</t>
-  </si>
-  <si>
-    <t>comercio</t>
-  </si>
-  <si>
-    <t>transporte almacenaje</t>
-  </si>
-  <si>
-    <t>estab. financieros</t>
-  </si>
-  <si>
-    <t>servicios sociales y personales</t>
-  </si>
-  <si>
-    <t>Agricultura,silvicultura,pesca</t>
-  </si>
-  <si>
-    <t>Minería</t>
-  </si>
-  <si>
-    <t>Industria</t>
-  </si>
-  <si>
-    <t>Elec. gas, agua</t>
-  </si>
-  <si>
-    <t>Construcción</t>
-  </si>
-  <si>
-    <t>Comercio</t>
-  </si>
-  <si>
-    <t>Transporte, almac. comunicaciones</t>
-  </si>
-  <si>
-    <t>Establ. financieros</t>
-  </si>
-  <si>
-    <t>Servicios sociales</t>
-  </si>
-  <si>
-    <t>Primario</t>
-  </si>
-  <si>
-    <t>Secundario</t>
-  </si>
-  <si>
-    <t>Terciario</t>
-  </si>
-  <si>
-    <t>Agricultura y pesca</t>
-  </si>
-  <si>
-    <t>Industrias manufactureras</t>
-  </si>
-  <si>
-    <t>Electricidad, agua y combustibles</t>
-  </si>
-  <si>
-    <t>Transporte y comunicaciones</t>
-  </si>
-  <si>
-    <t>Establecimientos financieros</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Agricultura, Ganadería, Caza y Silvicultura</t>
-  </si>
-  <si>
-    <t>Pesca</t>
-  </si>
-  <si>
-    <t>Explotacipon de minas y canteras</t>
-  </si>
-  <si>
-    <t>Industrias manufactureras no metálicas</t>
-  </si>
-  <si>
-    <t>Industrias manufactureras metálicas</t>
-  </si>
-  <si>
-    <t>Suministro de electricidad, gas y agua</t>
-  </si>
-  <si>
-    <t>Hoteles y restaurantes</t>
-  </si>
-  <si>
-    <t>Transporte, almacenamiento y comunicaciones</t>
-  </si>
-  <si>
-    <t>Intermediación financiera</t>
-  </si>
-  <si>
-    <t>Actividades inmobiliarias</t>
-  </si>
-  <si>
-    <t>Enseñanza</t>
-  </si>
-  <si>
-    <t>Servicios sociales y de salud</t>
-  </si>
-  <si>
-    <t>Otras actividades de servicios</t>
-  </si>
-  <si>
-    <t>Explotación de Minas y Canteras</t>
-  </si>
-  <si>
-    <t>Industrias Manufactureras No Metálicas</t>
-  </si>
-  <si>
-    <t>Industrias Manufactureras Metálicas</t>
-  </si>
-  <si>
-    <t>Suministro de Electricidad, Gas y Agua</t>
-  </si>
-  <si>
-    <t>Comercio al Por Mayor y Menor</t>
-  </si>
-  <si>
-    <t>Hoteles y Restaurantes</t>
-  </si>
-  <si>
-    <t>Transporte, Almacenamiento y Comunicaciones</t>
-  </si>
-  <si>
-    <t>Intermediación Financiera</t>
-  </si>
-  <si>
-    <t>Actividades Inmobiliarias, Empresariales y de Alquiler</t>
-  </si>
-  <si>
-    <t>Servicios Sociales y de Salud</t>
-  </si>
-  <si>
-    <t>Otras Actividades de Servicios Comunitarias, Sociales y Personales</t>
-  </si>
-  <si>
-    <t>Agricultura, ganadería, caza y silvicultura</t>
-  </si>
-  <si>
-    <t>Explotación de minas y canteras</t>
-  </si>
-  <si>
-    <t>Comercio al por mayor y menor</t>
-  </si>
-  <si>
-    <t>Actividades inmobiliarias, empresariales y de alquiler</t>
-  </si>
-  <si>
-    <t>Otras actividades de servicios comunitarios, sociales y personales</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Industria manufacturera</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Agricultura, ganadería, silvicultura y pesca</t>
-  </si>
-  <si>
-    <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
-  </si>
-  <si>
-    <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
-  </si>
-  <si>
-    <t>Transporte y almacenamiento; información y comunicaciones</t>
-  </si>
-  <si>
-    <t>Actividades de alojamiento y de servicio de comidas</t>
-  </si>
-  <si>
-    <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
-  </si>
-  <si>
-    <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
-  </si>
-  <si>
-    <t>Actividades de atención de la salud humana y de asistencia social</t>
-  </si>
-  <si>
-    <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,19 +71,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,27 +149,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,24 +183,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,34 +358,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -712,16 +408,18 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>0.19753086419753091</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="E2">
         <v>1998</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -732,16 +430,18 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.15789473684210531</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E3">
         <v>1998</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>minas y canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -752,16 +452,18 @@
         <v>146</v>
       </c>
       <c r="D4">
-        <v>0.43582089552238812</v>
+        <v>0.4358208955223881</v>
       </c>
       <c r="E4">
         <v>1998</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ind.manufactura</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -777,11 +479,13 @@
       <c r="E5">
         <v>1998</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>elec. gas agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -792,16 +496,18 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2.150537634408602E-2</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E6">
         <v>1998</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>construccion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -812,16 +518,18 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>5.8641975308641972E-2</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="E7">
         <v>1998</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>comercio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -832,16 +540,18 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>8.5714285714285715E-2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="E8">
         <v>1998</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>transporte almacenaje</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -852,16 +562,18 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E9">
         <v>1998</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>estab. financieros</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -872,13 +584,15 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.12994350282485881</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="E10">
         <v>1998</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>servicios sociales y personales</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -887,34 +601,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -930,11 +656,13 @@
       <c r="E2">
         <v>1999</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura,silvicultura,pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,11 +678,13 @@
       <c r="E3">
         <v>1999</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Minería</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -965,16 +695,18 @@
         <v>101</v>
       </c>
       <c r="D4">
-        <v>0.28693181818181818</v>
+        <v>0.2869318181818182</v>
       </c>
       <c r="E4">
         <v>1999</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -985,16 +717,18 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.54545454545454541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E5">
         <v>1999</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Elec. gas, agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1005,16 +739,18 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3.896103896103896E-2</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E6">
         <v>1999</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1025,16 +761,18 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>8.7071240105540904E-2</v>
+        <v>0.0870712401055409</v>
       </c>
       <c r="E7">
         <v>1999</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comercio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1050,11 +788,13 @@
       <c r="E8">
         <v>1999</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transporte, almac. comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1065,16 +805,18 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0.16521739130434779</v>
+        <v>0.1652173913043478</v>
       </c>
       <c r="E9">
         <v>1999</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Establ. financieros</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1085,13 +827,15 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.18103448275862069</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="E10">
         <v>1999</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Servicios sociales</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1100,36 +844,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1145,11 +899,13 @@
       <c r="E2">
         <v>2002</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Primario</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1165,11 +921,13 @@
       <c r="E3">
         <v>2002</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Secundario</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1180,16 +938,18 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>9.1623036649214659E-2</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="E4">
         <v>2002</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Terciario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1203,34 +963,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1241,16 +1013,18 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>8.0459770114942528E-2</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="E2">
         <v>2004</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura y pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1266,11 +1040,13 @@
       <c r="E3">
         <v>2004</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Minería</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1286,11 +1062,13 @@
       <c r="E4">
         <v>2004</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1306,11 +1084,13 @@
       <c r="E5">
         <v>2004</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Electricidad, agua y combustibles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1321,16 +1101,18 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>5.3191489361702128E-2</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="E6">
         <v>2004</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1341,16 +1123,18 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>4.6052631578947373E-2</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="E7">
         <v>2004</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comercio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1361,16 +1145,18 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>8.6419753086419748E-2</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="E8">
         <v>2004</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transporte y comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1381,16 +1167,18 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4.9504950495049507E-2</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="E9">
         <v>2004</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Establecimientos financieros</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1406,8 +1194,10 @@
       <c r="E10">
         <v>2004</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1416,34 +1206,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1454,16 +1256,18 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>8.7301587301587297E-2</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="E2">
         <v>2006</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura, Ganadería, Caza y Silvicultura</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,16 +1278,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.5238095238095233E-2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E3">
         <v>2006</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1494,16 +1300,18 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7.1428571428571425E-2</v>
+        <v>0.07142857142857143</v>
       </c>
       <c r="E4">
         <v>2006</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Explotacipon de minas y canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,16 +1322,18 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0.18691588785046731</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="E5">
         <v>2006</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras no metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1539,11 +1349,13 @@
       <c r="E6">
         <v>2006</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1559,11 +1371,13 @@
       <c r="E7">
         <v>2006</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suministro de electricidad, gas y agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1574,16 +1388,18 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>4.2253521126760563E-2</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="E8">
         <v>2006</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1594,16 +1410,18 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>2.2304832713754649E-2</v>
+        <v>0.02230483271375465</v>
       </c>
       <c r="E9">
         <v>2006</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comercio</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1613,11 +1431,13 @@
       <c r="E10">
         <v>2006</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hoteles y restaurantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1628,16 +1448,18 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="E11">
         <v>2006</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transporte, almacenamiento y comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1648,16 +1470,18 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E12">
         <v>2006</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Intermediación financiera</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1668,16 +1492,18 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>6.3829787234042548E-2</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="E13">
         <v>2006</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actividades inmobiliarias</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1693,11 +1519,13 @@
       <c r="E14">
         <v>2006</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1708,16 +1536,18 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="E15">
         <v>2006</v>
       </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Servicios sociales y de salud</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1728,13 +1558,15 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>3.8461538461538457E-2</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E16">
         <v>2006</v>
       </c>
-      <c r="F16" t="s">
-        <v>45</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Otras actividades de servicios</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1743,74 +1575,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>262.69416561600002</v>
+        <v>262.694165616</v>
       </c>
       <c r="C2">
-        <v>7716.0425879750001</v>
+        <v>7716.042587975</v>
       </c>
       <c r="D2">
-        <v>3.2924280337707459E-2</v>
+        <v>0.03292428033770746</v>
       </c>
       <c r="E2">
         <v>2008</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura, Ganadería, Caza y Silvicultura</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34.419084454999997</v>
+        <v>34.419084455</v>
       </c>
       <c r="C3">
-        <v>636.60192121500006</v>
+        <v>636.6019212150001</v>
       </c>
       <c r="D3">
-        <v>5.1293602084234738E-2</v>
+        <v>0.05129360208423474</v>
       </c>
       <c r="E3">
         <v>2008</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1818,27 +1666,29 @@
         <v>114.170568074</v>
       </c>
       <c r="C4">
-        <v>368.89764453100003</v>
+        <v>368.897644531</v>
       </c>
       <c r="D4">
-        <v>0.23634460950829761</v>
+        <v>0.2363446095082976</v>
       </c>
       <c r="E4">
         <v>2008</v>
       </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Explotación de Minas y Canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1094.1255711859999</v>
+        <v>1094.125571186</v>
       </c>
       <c r="C5">
-        <v>9490.1237859140001</v>
+        <v>9490.123785914</v>
       </c>
       <c r="D5">
         <v>0.1033729964470321</v>
@@ -1846,31 +1696,35 @@
       <c r="E5">
         <v>2008</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Industrias Manufactureras No Metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>362.06791896700003</v>
+        <v>362.067918967</v>
       </c>
       <c r="C6">
-        <v>5080.6043117449999</v>
+        <v>5080.604311745</v>
       </c>
       <c r="D6">
-        <v>6.6523924943324195E-2</v>
+        <v>0.0665239249433242</v>
       </c>
       <c r="E6">
         <v>2008</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Industrias Manufactureras Metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1886,11 +1740,13 @@
       <c r="E7">
         <v>2008</v>
       </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suministro de Electricidad, Gas y Agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1898,39 +1754,43 @@
         <v>178.724713259</v>
       </c>
       <c r="C8">
-        <v>8632.8458827260001</v>
+        <v>8632.845882726</v>
       </c>
       <c r="D8">
-        <v>2.0282957653478491E-2</v>
+        <v>0.02028295765347849</v>
       </c>
       <c r="E8">
         <v>2008</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>637.58582001800005</v>
+        <v>637.5858200180001</v>
       </c>
       <c r="C9">
         <v>23129.790176699</v>
       </c>
       <c r="D9">
-        <v>2.6826092207489379E-2</v>
+        <v>0.02682609220748938</v>
       </c>
       <c r="E9">
         <v>2008</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comercio al Por Mayor y Menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1938,39 +1798,43 @@
         <v>47.674010267</v>
       </c>
       <c r="C10">
-        <v>5418.9074843110002</v>
+        <v>5418.907484311</v>
       </c>
       <c r="D10">
-        <v>8.7209914119610599E-3</v>
+        <v>0.00872099141196106</v>
       </c>
       <c r="E10">
         <v>2008</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hoteles y Restaurantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>404.67919906999998</v>
+        <v>404.67919907</v>
       </c>
       <c r="C11">
-        <v>6189.7090041219999</v>
+        <v>6189.709004122</v>
       </c>
       <c r="D11">
-        <v>6.1367208996600447E-2</v>
+        <v>0.06136720899660045</v>
       </c>
       <c r="E11">
         <v>2008</v>
       </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transporte, Almacenamiento y Comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1986,36 +1850,40 @@
       <c r="E12">
         <v>2008</v>
       </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Intermediación Financiera</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>374.06695474899999</v>
+        <v>374.066954749</v>
       </c>
       <c r="C13">
         <v>10335.160175121</v>
       </c>
       <c r="D13">
-        <v>3.4929407156344523E-2</v>
+        <v>0.03492940715634452</v>
       </c>
       <c r="E13">
         <v>2008</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actividades Inmobiliarias, Empresariales y de Alquiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>585.49189024399993</v>
+        <v>585.4918902439999</v>
       </c>
       <c r="C14">
         <v>1784.516008224</v>
@@ -2026,31 +1894,35 @@
       <c r="E14">
         <v>2008</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>279.05049320400002</v>
+        <v>279.050493204</v>
       </c>
       <c r="C15">
-        <v>957.54172613200001</v>
+        <v>957.541726132</v>
       </c>
       <c r="D15">
-        <v>0.22566088387151501</v>
+        <v>0.225660883871515</v>
       </c>
       <c r="E15">
         <v>2008</v>
       </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Servicios Sociales y de Salud</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2058,16 +1930,18 @@
         <v>197.310806525</v>
       </c>
       <c r="C16">
-        <v>2315.4752749590002</v>
+        <v>2315.475274959</v>
       </c>
       <c r="D16">
-        <v>7.8522723433931282E-2</v>
+        <v>0.07852272343393128</v>
       </c>
       <c r="E16">
         <v>2008</v>
       </c>
-      <c r="F16" t="s">
-        <v>56</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Otras Actividades de Servicios Comunitarias, Sociales y Personales</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2076,62 +1950,76 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6141.1149992522596</v>
+        <v>6141.11499925226</v>
       </c>
       <c r="C2">
-        <v>481.13973981422947</v>
+        <v>481.1397398142295</v>
       </c>
       <c r="D2">
-        <v>7.2654973082786248E-2</v>
+        <v>0.07265497308278625</v>
       </c>
       <c r="E2">
         <v>2011</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura, ganadería, caza y silvicultura</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>299.04468773094328</v>
+        <v>299.0446877309433</v>
       </c>
       <c r="C3">
-        <v>77.253007268893924</v>
+        <v>77.25300726889392</v>
       </c>
       <c r="D3">
         <v>0.205297582991911</v>
@@ -2139,39 +2027,43 @@
       <c r="E3">
         <v>2011</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>367.28030747619931</v>
+        <v>367.2803074761993</v>
       </c>
       <c r="C4">
         <v>37.22801113477928</v>
       </c>
       <c r="D4">
-        <v>9.2032745488682996E-2</v>
+        <v>0.092032745488683</v>
       </c>
       <c r="E4">
         <v>2011</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Explotación de minas y canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6890.9174954166474</v>
+        <v>6890.917495416647</v>
       </c>
       <c r="C5">
-        <v>1252.8909364432341</v>
+        <v>1252.890936443234</v>
       </c>
       <c r="D5">
         <v>0.15384582617903</v>
@@ -2179,71 +2071,79 @@
       <c r="E5">
         <v>2011</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras no metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4304.5836609143662</v>
+        <v>4304.583660914366</v>
       </c>
       <c r="C6">
-        <v>653.55626490339876</v>
+        <v>653.5562649033988</v>
       </c>
       <c r="D6">
-        <v>0.13181480851321581</v>
+        <v>0.1318148085132158</v>
       </c>
       <c r="E6">
         <v>2011</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras metálicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>88.039928413240503</v>
+        <v>88.0399284132405</v>
       </c>
       <c r="C7">
-        <v>79.509725528457579</v>
+        <v>79.50972552845758</v>
       </c>
       <c r="D7">
-        <v>0.47454425394471078</v>
+        <v>0.4745442539447108</v>
       </c>
       <c r="E7">
         <v>2011</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Suministro de electricidad, gas y agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6935.0098746504991</v>
+        <v>6935.009874650499</v>
       </c>
       <c r="C8">
-        <v>271.20705863367613</v>
+        <v>271.2070586336761</v>
       </c>
       <c r="D8">
-        <v>3.7635150474171992E-2</v>
+        <v>0.03763515047417199</v>
       </c>
       <c r="E8">
         <v>2011</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2251,59 +2151,65 @@
         <v>15872.96843157786</v>
       </c>
       <c r="C9">
-        <v>530.83777610044183</v>
+        <v>530.8377761004418</v>
       </c>
       <c r="D9">
-        <v>3.2360646631631573E-2</v>
+        <v>0.03236064663163157</v>
       </c>
       <c r="E9">
         <v>2011</v>
       </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comercio al por mayor y menor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5977.2551908127007</v>
+        <v>5977.255190812701</v>
       </c>
       <c r="C10">
-        <v>199.37033709367151</v>
+        <v>199.3703370936715</v>
       </c>
       <c r="D10">
-        <v>3.2278197244256443E-2</v>
+        <v>0.03227819724425644</v>
       </c>
       <c r="E10">
         <v>2011</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hoteles y restaurantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5408.8772360971052</v>
+        <v>5408.877236097105</v>
       </c>
       <c r="C11">
-        <v>641.57317987043075</v>
+        <v>641.5731798704308</v>
       </c>
       <c r="D11">
-        <v>0.10603725933812751</v>
+        <v>0.1060372593381275</v>
       </c>
       <c r="E11">
         <v>2011</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transporte, almacenamiento y comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2314,93 +2220,103 @@
         <v>120.7799259720111</v>
       </c>
       <c r="D12">
-        <v>5.7377933434356279E-2</v>
+        <v>0.05737793343435628</v>
       </c>
       <c r="E12">
         <v>2011</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Intermediación financiera</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8839.5799279794228</v>
+        <v>8839.579927979423</v>
       </c>
       <c r="C13">
-        <v>626.57481825360946</v>
+        <v>626.5748182536095</v>
       </c>
       <c r="D13">
-        <v>6.6191060155967665E-2</v>
+        <v>0.06619106015596767</v>
       </c>
       <c r="E13">
         <v>2011</v>
       </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2278.0332042526238</v>
+        <v>2278.033204252624</v>
       </c>
       <c r="C14">
-        <v>697.85106785567257</v>
+        <v>697.8510678556726</v>
       </c>
       <c r="D14">
-        <v>0.23450208544610929</v>
+        <v>0.2345020854461093</v>
       </c>
       <c r="E14">
         <v>2011</v>
       </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2021.8264403532639</v>
+        <v>2021.826440353264</v>
       </c>
       <c r="C15">
         <v>197.6240536969182</v>
       </c>
       <c r="D15">
-        <v>8.904188411802888E-2</v>
+        <v>0.08904188411802888</v>
       </c>
       <c r="E15">
         <v>2011</v>
       </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Servicios sociales y de salud</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2799.6588322878761</v>
+        <v>2799.658832287876</v>
       </c>
       <c r="C16">
-        <v>261.59814593838598</v>
+        <v>261.598145938386</v>
       </c>
       <c r="D16">
-        <v>8.5454487421033121E-2</v>
+        <v>0.08545448742103312</v>
       </c>
       <c r="E16">
         <v>2011</v>
       </c>
-      <c r="F16" t="s">
-        <v>61</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2409,82 +2325,104 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>62</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="B2">
-        <v>6764.4201425129104</v>
+        <v>6764.42014251291</v>
       </c>
       <c r="C2">
         <v>131.0753919992116</v>
       </c>
       <c r="D2">
-        <v>1.9008842996587571E-2</v>
+        <v>0.01900884299658757</v>
       </c>
       <c r="E2">
         <v>2014</v>
       </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>63</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura, ganadería, caza y silvicultura</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="B3">
-        <v>241.79495161218719</v>
+        <v>241.7949516121872</v>
       </c>
       <c r="C3">
         <v>59.53300066731483</v>
       </c>
       <c r="D3">
-        <v>0.19756879578199221</v>
+        <v>0.1975687957819922</v>
       </c>
       <c r="E3">
         <v>2014</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>64</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="B4">
-        <v>524.93090064005253</v>
+        <v>524.9309006400525</v>
       </c>
       <c r="C4">
-        <v>95.669369818839684</v>
+        <v>95.66936981883968</v>
       </c>
       <c r="D4">
         <v>0.1541561845406523</v>
@@ -2492,99 +2430,119 @@
       <c r="E4">
         <v>2014</v>
       </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>65</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Explotación de minas y canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
       <c r="B5">
-        <v>9682.1821324541543</v>
+        <v>9682.182132454154</v>
       </c>
       <c r="C5">
-        <v>1049.6769397324849</v>
+        <v>1049.676939732485</v>
       </c>
       <c r="D5">
-        <v>9.7809422642614954E-2</v>
+        <v>0.09780942264261495</v>
       </c>
       <c r="E5">
         <v>2014</v>
       </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>67</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Industria manufacturera</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
       </c>
       <c r="B6">
         <v>209.6074402926906</v>
       </c>
       <c r="C6">
-        <v>85.736022437909384</v>
+        <v>85.73602243790938</v>
       </c>
       <c r="D6">
-        <v>0.29029260253549011</v>
+        <v>0.2902926025354901</v>
       </c>
       <c r="E6">
         <v>2014</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>68</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suministro de electricidad, gas y agua</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
       </c>
       <c r="B7">
-        <v>8754.4660993715825</v>
+        <v>8754.466099371583</v>
       </c>
       <c r="C7">
-        <v>235.29464746503629</v>
+        <v>235.2946474650363</v>
       </c>
       <c r="D7">
-        <v>2.617362731792762E-2</v>
+        <v>0.02617362731792762</v>
       </c>
       <c r="E7">
         <v>2014</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>69</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="B8">
-        <v>16684.671722795589</v>
+        <v>16684.67172279559</v>
       </c>
       <c r="C8">
-        <v>429.37251613558158</v>
+        <v>429.3725161355816</v>
       </c>
       <c r="D8">
-        <v>2.5088898342265669E-2</v>
+        <v>0.02508889834226567</v>
       </c>
       <c r="E8">
         <v>2014</v>
       </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>71</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas, efectos personales y enseres do</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
       </c>
       <c r="B9">
-        <v>4359.6467684151366</v>
+        <v>4359.646768415137</v>
       </c>
       <c r="C9">
-        <v>490.57125894483801</v>
+        <v>490.571258944838</v>
       </c>
       <c r="D9">
         <v>0.1011441663400565</v>
@@ -2592,79 +2550,95 @@
       <c r="E9">
         <v>2014</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>72</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hoteles y restaurantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
       </c>
       <c r="B10">
-        <v>6460.1062918869802</v>
+        <v>6460.10629188698</v>
       </c>
       <c r="C10">
-        <v>594.99563754919552</v>
+        <v>594.9956375491955</v>
       </c>
       <c r="D10">
-        <v>8.4335512583692165E-2</v>
+        <v>0.08433551258369217</v>
       </c>
       <c r="E10">
         <v>2014</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>73</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Transporte, almacenamiento y comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
       </c>
       <c r="B11">
         <v>1011.660941999439</v>
       </c>
       <c r="C11">
-        <v>86.501504834882184</v>
+        <v>86.50150483488218</v>
       </c>
       <c r="D11">
-        <v>7.8769316037204273E-2</v>
+        <v>0.07876931603720427</v>
       </c>
       <c r="E11">
         <v>2014</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>74</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Intermediación financiera</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="B12">
-        <v>10764.082321783129</v>
+        <v>10764.08232178313</v>
       </c>
       <c r="C12">
-        <v>755.11935754660772</v>
+        <v>755.1193575466077</v>
       </c>
       <c r="D12">
-        <v>6.5553098085052858E-2</v>
+        <v>0.06555309808505286</v>
       </c>
       <c r="E12">
         <v>2014</v>
       </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>75</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Actividades inmobiliarias, empresariales y de alquiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="B13">
-        <v>4554.6005700615369</v>
+        <v>4554.600570061537</v>
       </c>
       <c r="C13">
-        <v>584.12392877444734</v>
+        <v>584.1239287744473</v>
       </c>
       <c r="D13">
         <v>0.1136709953815898</v>
@@ -2672,48 +2646,58 @@
       <c r="E13">
         <v>2014</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>76</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="B14">
         <v>1420.58966090693</v>
       </c>
       <c r="C14">
-        <v>222.71473207432661</v>
+        <v>222.7147320743266</v>
       </c>
       <c r="D14">
-        <v>0.13552859289220359</v>
+        <v>0.1355285928922036</v>
       </c>
       <c r="E14">
         <v>2014</v>
       </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>77</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Servicios sociales y de salud</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
       </c>
       <c r="B15">
-        <v>3128.2041281851898</v>
+        <v>3128.20412818519</v>
       </c>
       <c r="C15">
-        <v>290.27308879754298</v>
+        <v>290.273088797543</v>
       </c>
       <c r="D15">
-        <v>8.4912980363153673E-2</v>
+        <v>0.08491298036315367</v>
       </c>
       <c r="E15">
         <v>2014</v>
       </c>
-      <c r="F15" t="s">
-        <v>61</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Otras actividades de servicios comunitarios, sociales y personales</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2722,76 +2706,90 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>con_sindicato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sin_sindicato</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_sindicato</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENCLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>177.47877952338271</v>
+        <v>177.4787795233827</v>
       </c>
       <c r="C2">
-        <v>6877.9653768515918</v>
+        <v>6877.965376851592</v>
       </c>
       <c r="D2">
-        <v>2.5154869855077939E-2</v>
+        <v>0.02515486985507794</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Agricultura, ganadería, silvicultura y pesca</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.565857418111776</v>
+        <v>77.56585741811178</v>
       </c>
       <c r="C3">
-        <v>475.70199391754443</v>
+        <v>475.7019939175444</v>
       </c>
       <c r="D3">
-        <v>0.14019585130576151</v>
+        <v>0.1401958513057615</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Explotación de minas y canteras</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2802,16 +2800,18 @@
         <v>10670.22307338839</v>
       </c>
       <c r="D4">
-        <v>0.11335075314896401</v>
+        <v>0.113350753148964</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Industrias manufactureras</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>115.5228635189136</v>
       </c>
       <c r="C5">
-        <v>352.47892812010548</v>
+        <v>352.4789281201055</v>
       </c>
       <c r="D5">
         <v>0.2468427804823857</v>
@@ -2827,11 +2827,13 @@
       <c r="E5">
         <v>2019</v>
       </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Suministro de electricidad, gas, vapor  y aire acondicionado; y Suministro de agua; evacuación de aguas residuales, ges</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2839,59 +2841,65 @@
         <v>547.4255745302014</v>
       </c>
       <c r="C6">
-        <v>8175.7216824015422</v>
+        <v>8175.721682401542</v>
       </c>
       <c r="D6">
-        <v>6.2755512248769657E-2</v>
+        <v>0.06275551224876966</v>
       </c>
       <c r="E6">
         <v>2019</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>459.88870379960269</v>
+        <v>459.8887037996027</v>
       </c>
       <c r="C7">
         <v>15187.38146993629</v>
       </c>
       <c r="D7">
-        <v>2.9390986331374949E-2</v>
+        <v>0.02939098633137495</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comercio al por mayor y al por menor; Reparación de vehículos automotores, motocicletas</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>480.37898861625501</v>
+        <v>480.378988616255</v>
       </c>
       <c r="C8">
-        <v>7100.7056945602517</v>
+        <v>7100.705694560252</v>
       </c>
       <c r="D8">
-        <v>6.3365469282025508E-2</v>
+        <v>0.06336546928202551</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Transporte y almacenamiento; información y comunicaciones</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2899,19 +2907,21 @@
         <v>127.0351317610106</v>
       </c>
       <c r="C9">
-        <v>5476.6970444866438</v>
+        <v>5476.697044486644</v>
       </c>
       <c r="D9">
-        <v>2.2669736483743819E-2</v>
+        <v>0.02266973648374382</v>
       </c>
       <c r="E9">
         <v>2019</v>
       </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Actividades de alojamiento y de servicio de comidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2919,59 +2929,65 @@
         <v>194.3445842508111</v>
       </c>
       <c r="C10">
-        <v>2446.6447634134111</v>
+        <v>2446.644763413411</v>
       </c>
       <c r="D10">
-        <v>7.3587795582248691E-2</v>
+        <v>0.07358779558224869</v>
       </c>
       <c r="E10">
         <v>2019</v>
       </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Actividades financieras y de seguros; Actividades inmobiliarias</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>419.17113511229189</v>
+        <v>419.1711351122919</v>
       </c>
       <c r="C11">
-        <v>9447.1318302012751</v>
+        <v>9447.131830201275</v>
       </c>
       <c r="D11">
-        <v>4.248512706187408E-2</v>
+        <v>0.04248512706187408</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Actividades profesionales, científicas y técnicas; Actividades de servicios administrativos y de apoyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>707.73251754770115</v>
+        <v>707.7325175477012</v>
       </c>
       <c r="C12">
         <v>4188.85999111414</v>
       </c>
       <c r="D12">
-        <v>0.14453571872598259</v>
+        <v>0.1445357187259826</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Enseñanza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2982,33 +2998,37 @@
         <v>1993.552448752039</v>
       </c>
       <c r="D13">
-        <v>8.6306184517292259E-2</v>
+        <v>0.08630618451729226</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Actividades de atención de la salud humana y de asistencia social</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>128.30853937151701</v>
+        <v>128.308539371517</v>
       </c>
       <c r="C14">
-        <v>2056.3440702676812</v>
+        <v>2056.344070267681</v>
       </c>
       <c r="D14">
-        <v>5.8731781339234332E-2</v>
+        <v>0.05873178133923433</v>
       </c>
       <c r="E14">
         <v>2019</v>
       </c>
-      <c r="F14" t="s">
-        <v>86</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Actividades artísticas, de entretenimiento y recreativas; Otras actividades de servicios</t>
+        </is>
       </c>
     </row>
   </sheetData>
